--- a/biology/Médecine/Ramón_Allende_Padín/Ramón_Allende_Padín.xlsx
+++ b/biology/Médecine/Ramón_Allende_Padín/Ramón_Allende_Padín.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_Allende_Pad%C3%ADn</t>
+          <t>Ramón_Allende_Padín</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramón Allende Padín, dit El Rojo (né le 19 mars 1845 à Valparaíso et mort le 14 octobre 1884 à Santiago) était un médecin et homme politique chilien du XIXe siècle.
 Député et sénateur du Parti radical, Ramón Allende était le grand-père du président de la République Salvador Allende Gossens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_Allende_Pad%C3%ADn</t>
+          <t>Ramón_Allende_Padín</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramón Allende a fait sa carrière sous le pseudonyme de « El Rojo » dans la franc-maçonnerie. Il revient à Valparaíso, sa ville natale, en 1864. Dans cette ville, il fonde la première école contrôlée par la franc-maçonnerie au Chili, la Blas Cuevas. 
 Médecin depuis 1865, il a soigné beaucoup de pauvres. Ces derniers n'ayant pas d'argent le paient en aliments, vêtements etc.
